--- a/hipp_milk_formulas.xlsx
+++ b/hipp_milk_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yeshwanth\Desktop\uyyaala to kidsfud products\milk_formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311D2246-ED14-4E7C-A8B7-51CD81D67B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57804C42-5277-4F9C-9928-90BAA6F18663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>https://www.uyyaala.com/products/hipp-organic-combiotic-first-infant-milk-formula-stage-1-800g-from-birth</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>https://www.uyyaala.com/products/hipp-comfort-combiotic-infant-milk-formula-stage-1-800g-from-birth</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/hipp-organic-combiotic-growing-up-baby-milk-formula-stage-4-600gms-2-years</t>
   </si>
   <si>
     <t>https://www.uyyaala.com/products/hipp-anti-reflux-milk-combiotic-from-birth-0-6months-800gms</t>
@@ -403,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -413,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,14 +451,6 @@
       </c>
       <c r="B6" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
